--- a/biology/Botanique/Pemphis_acidula/Pemphis_acidula.xlsx
+++ b/biology/Botanique/Pemphis_acidula/Pemphis_acidula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pemphis acidula est un arbuste de la famille des Lythraceae naturellement présent sur de nombreux rivages tropicaux de l'océan Indien et de la partie occidentale et centrale de l'océan Pacifique.
 S'accommodant d'une forte salinité de l'air, il caractérise souvent les formations arbustives littorales, notamment sur sables ou rochers calcaires.
@@ -514,12 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Aspect général
-L'espèce se présente comme un buisson dense. Sa taille varie en fonction de l'exposition au vent[1].
-Feuilles
-Fleurs
-Les fleurs sont blanches, leurs corolles sont fragiles et froissées. Elles sont mellifères[1].
-Fruits</t>
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente comme un buisson dense. Sa taille varie en fonction de l'exposition au vent.
+</t>
         </is>
       </c>
     </row>
@@ -544,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Intérêts écologiques</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce freine l'érosion marine et offre un refuge aux oiseaux marins[1].
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont blanches, leurs corolles sont fragiles et froissées. Elles sont mellifères.
 </t>
         </is>
       </c>
@@ -575,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Usages</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois très dur de cette espèce est utilisé pour sculpter de petits objets[1].
+          <t>Intérêts écologiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce freine l'érosion marine et offre un refuge aux oiseaux marins.
 </t>
         </is>
       </c>
@@ -606,13 +628,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois très dur de cette espèce est utilisé pour sculpter de petits objets.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pemphis_acidula</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pemphis_acidula</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est connu à La Réunion et à Maurice sous le nom de bois matelot, en Polynésie sous celui de miki miki.
-On l'appelle aussi faux romarin du bord de mer[1].
+On l'appelle aussi faux romarin du bord de mer.
 </t>
         </is>
       </c>
